--- a/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
+++ b/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Parametrized_Checkpoints" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="272">
   <si>
     <t>Keyword_88</t>
   </si>
@@ -830,13 +829,16 @@
   </si>
   <si>
     <t>runLoopTest</t>
+  </si>
+  <si>
+    <t>ScenarioExecution1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -1213,19 +1215,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV7"/>
+  <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1236,7 +1238,7 @@
     <col min="102" max="16384" width="12.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="1" customFormat="1">
+    <row r="1" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:256">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>263</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>262</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>264</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>268</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>269</v>
       </c>
@@ -2049,12 +2051,20 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2085,7 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -2084,7 +2094,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>263</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>262</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>264</v>
       </c>
@@ -2163,7 +2173,7 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -2171,7 +2181,7 @@
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2182,7 +2192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>263</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>262</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>264</v>
       </c>

--- a/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
+++ b/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14205" windowHeight="4665" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13830" windowHeight="3255" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Flow" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Parametrized_Checkpoints" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -831,7 +832,7 @@
     <t>runLoopTest</t>
   </si>
   <si>
-    <t>ScenarioExecution1</t>
+    <t>gTest</t>
   </si>
 </sst>
 </file>
@@ -1215,13 +1216,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV8"/>
+  <dimension ref="A1:IV9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2060,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>271</v>
       </c>
@@ -2067,6 +2068,7 @@
         <v>271</v>
       </c>
     </row>
+    <row r="9" spans="1:256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
+++ b/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13830" windowHeight="3255" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14205" windowHeight="4665" tabRatio="510"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Flow" sheetId="1" r:id="rId1"/>
-    <sheet name="General_Data" sheetId="7" r:id="rId2"/>
-    <sheet name="Parametrized_Checkpoints" sheetId="3" r:id="rId3"/>
+    <sheet name="General_Data_E" sheetId="7" r:id="rId2"/>
+    <sheet name="General_Data_I" sheetId="8" r:id="rId3"/>
+    <sheet name="Parametrized_Checkpoints" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="328">
   <si>
     <t>Keyword_88</t>
   </si>
@@ -814,9 +814,6 @@
     <t>iConnectSample</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>SearchGoogle</t>
   </si>
   <si>
@@ -832,14 +829,185 @@
     <t>runLoopTest</t>
   </si>
   <si>
-    <t>gTest</t>
+    <t>external</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>http://wynexternalstage.loop.jobs/</t>
+  </si>
+  <si>
+    <t>http://wynp2stage.loop.jobs/</t>
+  </si>
+  <si>
+    <t>stagingURL</t>
+  </si>
+  <si>
+    <t>candidateType</t>
+  </si>
+  <si>
+    <t>runTestScenario</t>
+  </si>
+  <si>
+    <t>jobKeyword</t>
+  </si>
+  <si>
+    <t>jobLocation</t>
+  </si>
+  <si>
+    <t>browserTitle</t>
+  </si>
+  <si>
+    <t>US REQUISITION - TEST AUTOMATION</t>
+  </si>
+  <si>
+    <t>Parsippany</t>
+  </si>
+  <si>
+    <t>Welcome - Apply Process</t>
+  </si>
+  <si>
+    <t>TaleoWyndham+</t>
+  </si>
+  <si>
+    <t>Wyndham1</t>
+  </si>
+  <si>
+    <t>resumeSource</t>
+  </si>
+  <si>
+    <t>DropBox</t>
+  </si>
+  <si>
+    <t>gmailID</t>
+  </si>
+  <si>
+    <t>gmailPwd</t>
+  </si>
+  <si>
+    <t>localResumePath</t>
+  </si>
+  <si>
+    <t>TaleoWyndham@gmail.com</t>
+  </si>
+  <si>
+    <t>D:/Local Resume Path/test.doc</t>
+  </si>
+  <si>
+    <t>countryName</t>
+  </si>
+  <si>
+    <t>stateName</t>
+  </si>
+  <si>
+    <t>nearestMetroName</t>
+  </si>
+  <si>
+    <t>preferredPhone</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Anniston</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>345-123-2345</t>
+  </si>
+  <si>
+    <t>jobSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sourceVal</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>degreeName</t>
+  </si>
+  <si>
+    <t>degreeObtanied</t>
+  </si>
+  <si>
+    <t>Higher Degree</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>disablity</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>No, I do not have a disability</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>eSignature</t>
+  </si>
+  <si>
+    <t>Sally Adamson</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Cover Letter comment</t>
+  </si>
+  <si>
+    <t>LocalDrive</t>
+  </si>
+  <si>
+    <t>GoogleDrive</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>NoResume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -857,6 +1025,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Mic Shell Dlg"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -903,10 +1078,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,8 +1094,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1216,19 +1398,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2025,7 +2207,7 @@
         <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.25">
@@ -2033,42 +2215,41 @@
         <v>264</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2078,25 +2259,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:K1"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2107,15 +2310,90 @@
         <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2123,52 +2401,396 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>265</v>
+      <c r="D2" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="M3" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>265</v>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
+++ b/CRAFT_mCRAFT/Datatables/MobileTestingScenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14205" windowHeight="4665" tabRatio="510"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="5370" tabRatio="510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Flow" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="General_Data_I" sheetId="8" r:id="rId3"/>
     <sheet name="Parametrized_Checkpoints" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="329">
   <si>
     <t>Keyword_88</t>
   </si>
@@ -940,9 +941,6 @@
     <t>degreeName</t>
   </si>
   <si>
-    <t>degreeObtanied</t>
-  </si>
-  <si>
     <t>Higher Degree</t>
   </si>
   <si>
@@ -1001,6 +999,12 @@
   </si>
   <si>
     <t>NoResume</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>degreeObtained</t>
   </si>
 </sst>
 </file>
@@ -1400,11 +1404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2269,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,31 +2368,31 @@
         <v>304</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>306</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2453,50 +2457,50 @@
         <v>305</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M5" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>303</v>
@@ -2504,12 +2508,12 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M7" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2526,11 +2530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +2548,7 @@
     <col min="8" max="8" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -2554,7 +2558,7 @@
     <col min="18" max="18" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="3" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -2629,31 +2633,31 @@
         <v>304</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>306</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2718,49 +2722,49 @@
         <v>305</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M5" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>303</v>
@@ -2768,12 +2772,12 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M7" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2798,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
